--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.535</v>
+        <v>16.577</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.538</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.015</v>
+        <v>18.682</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.125</v>
+        <v>1.434</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.89730002892758</v>
+        <v>14.17828133558877</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.5687542294158</v>
+        <v>16.75165797686924</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.72318588866788</v>
+        <v>16.81573287505113</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.58082653593128</v>
+        <v>16.10886672970732</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.29801106301376</v>
+        <v>20.02074391073128</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.9791462626745</v>
+        <v>20.00270495821698</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.48376834263239</v>
+        <v>24.55757864650547</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.74789231152834</v>
+        <v>25.55279863864843</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.10988851994593</v>
+        <v>23.55423568828901</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.364522723499</v>
+        <v>42.03323537590034</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.1482739478505</v>
+        <v>17.28395866306242</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.06026792539038</v>
+        <v>20.57224954333465</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>20.91067538214518</v>
+        <v>21.23541833967188</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>17.44894104917119</v>
+        <v>18.72457012458199</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>38.40424537488063</v>
+        <v>37.21977255196527</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.41638858738443</v>
+        <v>17.12439549576166</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.9560001154741</v>
+        <v>18.75002006181957</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18.76620323462695</v>
+        <v>19.3534835205799</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.64104551322449</v>
+        <v>17.14872259723009</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>37.3891264019698</v>
+        <v>36.0134504462869</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.93471519502932</v>
+        <v>24.94057351952199</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.4977962069484</v>
+        <v>25.34430733658699</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>20.40490425488106</v>
+        <v>21.68833404811493</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>18.41423185016129</v>
+        <v>18.076316938301</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.67000853199793</v>
+        <v>23.63822564122666</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.2682479813674</v>
+        <v>24.04943303785485</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.87962613752288</v>
+        <v>20.65323186936533</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>49.28275232609799</v>
+        <v>48.70926636951057</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>53.29947281855678</v>
+        <v>52.23358459043136</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>46.55056350846612</v>
+        <v>46.75853033458989</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.52399255116053</v>
+        <v>46.65325774053973</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>59.47654685243322</v>
+        <v>57.15361802291566</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>64.47811698205017</v>
+        <v>61.16703006655408</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>56.9893953497087</v>
+        <v>55.20365424936446</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>44.0865792834547</v>
+        <v>42.47889028049285</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>46.80367485275889</v>
+        <v>44.59630458434489</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.94219047457705</v>
+        <v>40.29370426165364</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.40634672249132</v>
+        <v>44.32449878968383</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>53.48038230776071</v>
+        <v>51.27201027709464</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.13109801727331</v>
+        <v>55.00177351525871</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.37739795981648</v>
+        <v>48.89685377851045</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>38.87038755666094</v>
+        <v>38.12159215796054</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.12270186892597</v>
+        <v>39.87043185995027</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.26203913307204</v>
+        <v>36.29205721972296</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>47.30544179275694</v>
+        <v>46.03893929488666</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>54.08478312990245</v>
+        <v>52.35353014827638</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>58.56195954860923</v>
+        <v>56.02010186752616</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>50.14947280228637</v>
+        <v>49.57799668742841</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.96488532578758</v>
+        <v>35.88974129671669</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>33.79236414990614</v>
+        <v>34.1375163283325</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.04803357285687</v>
+        <v>36.67131057648253</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.90547585442756</v>
+        <v>29.65461260807366</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.27236721053232</v>
+        <v>24.21553982211998</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.61260245095184</v>
+        <v>40.95685104312297</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>44.38540950607975</v>
+        <v>43.7454060705977</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.44905594257816</v>
+        <v>47.78922333816244</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>40.04271274089679</v>
+        <v>40.39098466337571</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.96336305429438</v>
+        <v>44.0315955830097</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.13916189602428</v>
+        <v>38.06635144735057</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.27432501671176</v>
+        <v>38.85759115103335</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>43.35017327188015</v>
+        <v>42.02652018202478</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.94038850955752</v>
+        <v>34.13626811712411</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.6328108719404</v>
+        <v>39.70373490698573</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>43.20711248818611</v>
+        <v>41.60051361059438</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>41.72894938718468</v>
+        <v>41.23477245167585</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46.11947262079124</v>
+        <v>44.65912910139598</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35.71268388287164</v>
+        <v>36.73356402557883</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.93059049263789</v>
+        <v>39.47861483959024</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.45418422044299</v>
+        <v>28.95381733902618</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.49463210661811</v>
+        <v>30.50725721313706</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.86455257725103</v>
+        <v>25.80683364694342</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>32.98021904709097</v>
+        <v>32.45817842554631</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>34.98943430205752</v>
+        <v>34.59918543279424</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.16174390219679</v>
+        <v>36.28969394699833</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.85515294154901</v>
+        <v>30.03514678269619</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50.49109074120343</v>
+        <v>48.91881453017892</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>55.50694990791492</v>
+        <v>52.89957615162467</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.78693692419019</v>
+        <v>45.39472403432426</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>51.62049581778204</v>
+        <v>50.43939212827693</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>58.05818673159929</v>
+        <v>55.96354206262968</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>64.38413267325595</v>
+        <v>61.01688855264004</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>52.47083936102101</v>
+        <v>51.66079247378256</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>46.38428792504877</v>
+        <v>45.05925060113455</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>50.55956849373275</v>
+        <v>48.32678706556445</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.06100044287033</v>
+        <v>41.89439347965186</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>49.88896927373938</v>
+        <v>48.42720003877173</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>56.00338338852076</v>
+        <v>53.88250884418593</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>61.72751497946778</v>
+        <v>58.4165489977057</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.71496003557345</v>
+        <v>49.9277637248654</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.33237888518922</v>
+        <v>42.28041821224706</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>46.75481373744523</v>
+        <v>44.97951685157904</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.66376926276824</v>
+        <v>40.36269174050742</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>48.14037814008744</v>
+        <v>46.58959442979146</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>54.41223272980527</v>
+        <v>52.34572116068547</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>59.35052018432798</v>
+        <v>56.25996060515885</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>50.06567952567299</v>
+        <v>49.14195870733874</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.8905980278048</v>
+        <v>27.03169003018305</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.50356643184253</v>
+        <v>26.36027472365041</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.45186248104876</v>
+        <v>27.87331140320309</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.60924205936757</v>
+        <v>23.40534302811203</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.91544760428145</v>
+        <v>25.80354850762842</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.95935934793112</v>
+        <v>40.85369775605749</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>46.21528238796912</v>
+        <v>45.63807542691056</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50.6556878856173</v>
+        <v>49.04515906857117</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.9536662529386</v>
+        <v>42.61613343459294</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>44.94786523250327</v>
+        <v>44.9731280463915</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.90322800727996</v>
+        <v>37.15659151321836</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>39.06227841072283</v>
+        <v>38.55887854244345</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.05986393644093</v>
+        <v>41.682037386975</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.96338026770792</v>
+        <v>32.46579793498724</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.09718556859102</v>
+        <v>43.37966358262261</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.33644753454158</v>
+        <v>41.00628108457811</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.98942158651938</v>
+        <v>42.14748029373433</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.40637819787365</v>
+        <v>45.63539074912043</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.7772477208109</v>
+        <v>36.72119441142041</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.51519415207643</v>
+        <v>42.39220356006523</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.81287878336803</v>
+        <v>30.67508723348582</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.63811070838396</v>
+        <v>32.12653148627525</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.78170693099842</v>
+        <v>27.66989461566454</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.55604165201019</v>
+        <v>32.17468140082704</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.76265462258771</v>
+        <v>35.26889363198809</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.60681939163486</v>
+        <v>36.73034945982438</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.45022054347807</v>
+        <v>31.26948700462004</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.64020320397158</v>
+        <v>50.22021238440637</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>56.20063366964777</v>
+        <v>53.86213300066257</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>47.38288875037753</v>
+        <v>46.81799239670697</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>48.72947372785946</v>
+        <v>48.34369357437149</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.35626162260523</v>
+        <v>55.38391286315986</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.67451014459461</v>
+        <v>59.59742377559379</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>53.28196426572168</v>
+        <v>52.22848059794921</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.6311692913984</v>
+        <v>48.17324786503571</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.1217799390553</v>
+        <v>51.74582273490546</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>44.9029390362282</v>
+        <v>44.57666535965884</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.26925230925051</v>
+        <v>47.58955341418974</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.21552734157572</v>
+        <v>54.1311693212507</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>61.8186392349039</v>
+        <v>58.58640555731177</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>51.2784032386126</v>
+        <v>50.30141785266322</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>45.57881690380869</v>
+        <v>44.56252823662365</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.1589343244224</v>
+        <v>48.18229226919897</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>41.64349528806052</v>
+        <v>41.62390353959914</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>51.08682744806289</v>
+        <v>49.90742650478461</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>57.09449727444296</v>
+        <v>55.20354858804662</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>63.21809241209483</v>
+        <v>60.048272411616</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>51.9206980813629</v>
+        <v>51.28188795321333</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>17.10191121056438</v>
+        <v>18.6297058450191</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>27.9033975923395</v>
+        <v>27.55963136618168</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.40394923134414</v>
+        <v>28.79754241454292</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.38280588654107</v>
+        <v>32.64159696372003</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.49302978713074</v>
+        <v>14.91091528872966</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.4022421946527</v>
+        <v>24.52356824045876</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>35.33091724271926</v>
+        <v>34.21316120361707</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>38.06240132094324</v>
+        <v>36.40535807540683</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>39.74636818904862</v>
+        <v>37.55806887007619</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.83235661596227</v>
+        <v>45.73375738040754</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.15972746724643</v>
+        <v>22.51669586276887</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>32.79363403775245</v>
+        <v>32.04102065288183</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>35.28250924926058</v>
+        <v>34.0813240444023</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.81233638539819</v>
+        <v>35.22255794897656</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>38.06741699581018</v>
+        <v>36.88390454693662</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.30368564049342</v>
+        <v>23.31855767455458</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.78304377490586</v>
+        <v>31.29595001573664</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>34.29848190369437</v>
+        <v>33.33046671144754</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.61430375876985</v>
+        <v>35.11154958397785</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.19520332586637</v>
+        <v>32.27347905987899</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.12701249159874</v>
+        <v>19.47292912185039</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.38210480585094</v>
+        <v>19.61765586566336</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>15.97051085584893</v>
+        <v>17.39881475386834</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.375931022031</v>
+        <v>17.46797792322316</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>21.7718525684375</v>
+        <v>22.20056849509013</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.35033504672293</v>
+        <v>22.66173524992944</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>20.5292694294584</v>
+        <v>21.37572249256105</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>51.28786308278271</v>
+        <v>50.68094839293454</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.64871646213389</v>
+        <v>54.41741157103161</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>47.44671855331491</v>
+        <v>47.35776549080907</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50.0768094553151</v>
+        <v>49.55158052331822</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>59.45119305509816</v>
+        <v>57.40725276597958</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>64.50206353521084</v>
+        <v>61.53483448164702</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>55.62647243093362</v>
+        <v>54.32392444432443</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.82962302552897</v>
+        <v>42.23199832015518</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>46.76699818753256</v>
+        <v>44.48640011921547</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>40.15282597309483</v>
+        <v>39.48917491314632</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.93207492929518</v>
+        <v>43.29039673176435</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>54.31173054763065</v>
+        <v>51.80232208195622</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>58.00392465410812</v>
+        <v>54.65375780588013</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.51752816080903</v>
+        <v>49.03221662679906</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.15452094390508</v>
+        <v>33.81093615140461</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.23756596793369</v>
+        <v>35.45234572525886</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.08415228860881</v>
+        <v>32.35846408901192</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.4710451260331</v>
+        <v>41.40500268596315</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>48.46317688180832</v>
+        <v>46.81869459529939</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>51.64683075950035</v>
+        <v>49.34960800222126</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.64672663319632</v>
+        <v>44.7421700258144</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.96068561159563</v>
+        <v>23.81437395593974</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.78362252958694</v>
+        <v>22.68193116836503</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.21974321118201</v>
+        <v>23.68758287799011</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.84092124964149</v>
+        <v>19.02742382677645</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.61705933157828</v>
+        <v>26.46228068992924</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.0685584226273</v>
+        <v>36.64728127760588</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.94077333550387</v>
+        <v>33.87794111153542</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>37.08727993821012</v>
+        <v>36.37191156660798</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.21255615429367</v>
+        <v>23.59431413731446</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.16704927192104</v>
+        <v>46.93974220118692</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.16662632393361</v>
+        <v>35.47537315418353</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.99783569191821</v>
+        <v>34.2598683525886</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.86468259402289</v>
+        <v>36.45010372541304</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.60169202091113</v>
+        <v>23.20207192360694</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.53332375557737</v>
+        <v>45.15006399671359</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>41.83195347147386</v>
+        <v>40.12278895773116</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.86854062161997</v>
+        <v>35.41612565234644</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.35987689697738</v>
+        <v>38.06338138709028</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>19.93852690560372</v>
+        <v>23.2334099278436</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>45.49293979075333</v>
+        <v>44.80677620837671</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.11714744490724</v>
+        <v>32.67938760956919</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.14978348883706</v>
+        <v>34.28947094884192</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.16841832611636</v>
+        <v>30.52425705723411</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.8861749131496</v>
+        <v>30.27562819295833</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.00331497923031</v>
+        <v>34.61025903204661</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.43923295143286</v>
+        <v>35.72328095926125</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.31318432758679</v>
+        <v>31.86473331116448</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>55.71993882619842</v>
+        <v>53.96269870992509</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60.73314600755663</v>
+        <v>57.96530638092467</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51.73313546766653</v>
+        <v>50.85092423932658</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49.03810044263371</v>
+        <v>48.81267974479337</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>58.82038047082696</v>
+        <v>56.7617081107333</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>64.19569412373242</v>
+        <v>61.02803072670501</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>55.28305480530476</v>
+        <v>53.96031002937315</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>53.04686811632782</v>
+        <v>51.33553951986219</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>57.88320555652528</v>
+        <v>55.17757006510963</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.43422167756854</v>
+        <v>47.79838774625165</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>45.19118914140947</v>
+        <v>44.7549496567344</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>55.6699223646723</v>
+        <v>53.46262373188632</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>60.65949200712399</v>
+        <v>57.41934317537128</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.00549665652543</v>
+        <v>50.64284471443017</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.78770314413687</v>
+        <v>48.58626340029171</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.91569519328041</v>
+        <v>52.6521222034063</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.77699684301838</v>
+        <v>46.27310533751346</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.66440674611312</v>
+        <v>50.6490205778919</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.24573945057622</v>
+        <v>56.22859816416725</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>64.11879591173357</v>
+        <v>60.89562986176287</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>53.84835476552162</v>
+        <v>52.85471204680242</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.75294938693775</v>
+        <v>29.39077634983948</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.01573860156688</v>
+        <v>23.71396021140081</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.46457182897561</v>
+        <v>25.62566775856104</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>16.74039843525498</v>
+        <v>18.73781940956956</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>30.86577716081233</v>
+        <v>31.37288404687317</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.55115712378955</v>
+        <v>34.08171337942703</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.98929952473643</v>
+        <v>30.35294755125365</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.7747021297595</v>
+        <v>32.47107725166848</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>17.02975570643851</v>
+        <v>20.5149764658643</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>47.23447832805347</v>
+        <v>46.79388980705806</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.84067349527868</v>
+        <v>35.89039973513741</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.76020542852204</v>
+        <v>33.90731187633423</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.35464342957719</v>
+        <v>35.9211960280502</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.27527010552011</v>
+        <v>22.34052921361159</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>48.37538792710535</v>
+        <v>47.09114350398339</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.14352286465763</v>
+        <v>40.20575653220256</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.39608097808971</v>
+        <v>35.48525502300404</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>38.58801962566617</v>
+        <v>37.93621512265622</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>18.82214046829802</v>
+        <v>22.81663862916012</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.43551661717693</v>
+        <v>47.01522580542879</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.32334732678103</v>
+        <v>35.91406950870393</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>39.36066700203937</v>
+        <v>38.32353421849221</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.08396270516089</v>
+        <v>32.72998372453996</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.05670555715663</v>
+        <v>32.74211876564561</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.8338943632624</v>
+        <v>36.27977411273267</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>39.08699556311868</v>
+        <v>38.06182878617806</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.44682292035257</v>
+        <v>32.23912513709082</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>54.79173222952096</v>
+        <v>53.05964807135966</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>60.03470950907621</v>
+        <v>57.24645110354113</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>50.44666730046833</v>
+        <v>49.69236969957144</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>47.90515672212572</v>
+        <v>47.6153512570551</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>56.84707661582689</v>
+        <v>54.90903837607742</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>62.27650907443717</v>
+        <v>59.22713387957727</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.13788572624831</v>
+        <v>52.05264327975419</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.45726199407959</v>
+        <v>51.67216963283019</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>59.04074666830927</v>
+        <v>56.09519653728223</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>48.25899141312905</v>
+        <v>47.73369590143261</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>49.12962812010082</v>
+        <v>48.34917445390325</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>57.73997517550663</v>
+        <v>55.54667520929375</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>63.42158171953947</v>
+        <v>60.08157881885001</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>53.39245990915434</v>
+        <v>52.20432530245783</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.69853435891075</v>
+        <v>50.11848460425486</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>57.15043559144502</v>
+        <v>54.42126462534178</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.9052696756952</v>
+        <v>47.32354157082811</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>51.29191227968201</v>
+        <v>49.91491003662618</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>56.62268658192012</v>
+        <v>54.68732981695511</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>62.32735957325215</v>
+        <v>59.22840608829669</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.23786830704779</v>
+        <v>50.58749980861083</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>12.82817562547904</v>
+        <v>14.08368166561942</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>16.03418240179497</v>
+        <v>16.87597882423141</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.9921796204031</v>
+        <v>16.83023573418662</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.21558178722948</v>
+        <v>16.39093536347004</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.70047997217391</v>
+        <v>21.54277686893001</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>16.94314335990585</v>
+        <v>18.05219956647442</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.60062264493531</v>
+        <v>22.84302956798465</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.55439986824535</v>
+        <v>23.59988614322102</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.67724118961949</v>
+        <v>21.57099334551823</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>34.78122290624689</v>
+        <v>34.50671125738579</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.0969285435438</v>
+        <v>14.21573825333554</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>17.3976322513708</v>
+        <v>17.88414133174462</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>17.71604478244775</v>
+        <v>18.10902324702478</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>13.62205469281474</v>
+        <v>15.20431823365359</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.71972377005985</v>
+        <v>34.12094056289071</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.39424364590345</v>
+        <v>13.30748493123169</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>14.97946566660392</v>
+        <v>15.75563920907758</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.31479845084179</v>
+        <v>15.98664170036198</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>12.10871106827118</v>
+        <v>13.77096165207135</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.27414499120449</v>
+        <v>31.63436795852705</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.38606087709158</v>
+        <v>25.62451324197645</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.51668951706021</v>
+        <v>26.48947385122399</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.63783463920937</v>
+        <v>23.6781493911492</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.34954201422607</v>
+        <v>20.86561101162646</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.74194178276792</v>
+        <v>25.66167517157585</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.40761427220343</v>
+        <v>26.16442278882931</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.22924267751097</v>
+        <v>23.16729860754785</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.95534626893987</v>
+        <v>38.21389445027555</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>42.64251202727876</v>
+        <v>41.10315446176597</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>35.46663383399039</v>
+        <v>35.60761470119806</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.18200187346349</v>
+        <v>43.44906307952255</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>51.18736700196757</v>
+        <v>49.51940455649874</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>55.77987184083211</v>
+        <v>53.19652089471992</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.5607696299774</v>
+        <v>47.54717198931982</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.62165405431561</v>
+        <v>37.84941114479207</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.41825739373157</v>
+        <v>40.0452353969365</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.51985762084067</v>
+        <v>35.60920901237317</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>44.67234735436022</v>
+        <v>43.83987483447175</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>51.46704529726659</v>
+        <v>49.78646112105305</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>56.02450768016766</v>
+        <v>53.40242637182693</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>48.36383705309116</v>
+        <v>47.4994602543149</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.10747714967067</v>
+        <v>32.92229475130297</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.6306472515754</v>
+        <v>34.90007626430255</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>30.82588764461222</v>
+        <v>31.27659688852852</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>47.07429955496428</v>
+        <v>45.63414414087781</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.39066162019527</v>
+        <v>50.593982058386</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>57.12607782749691</v>
+        <v>54.34633269037873</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>48.47861718230151</v>
+        <v>47.70865242204329</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.688786360033937</v>
+        <v>10.31149205068278</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>11.76733758175031</v>
+        <v>13.36274621767865</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.97979257778121</v>
+        <v>13.46733003215554</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.85656424658399</v>
+        <v>13.42241998030247</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.50856750511754</v>
+        <v>11.52911003283516</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>12.36008934526422</v>
+        <v>13.8954588050804</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.84279526117176</v>
+        <v>17.10200256484026</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>16.59412563256395</v>
+        <v>17.66381867283179</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>15.06049137713114</v>
+        <v>16.54532047012905</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.70805741640558</v>
+        <v>18.23617250133689</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.70332978723842</v>
+        <v>12.90796828346134</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>14.65224995218993</v>
+        <v>15.58413120983956</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.47712218772357</v>
+        <v>16.20214388399564</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>13.98335585845238</v>
+        <v>15.29679317750453</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>18.32601893034946</v>
+        <v>18.71869194781009</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>8.236291513948437</v>
+        <v>9.517508691954365</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>10.21295733031276</v>
+        <v>11.54163270166213</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>10.4555952762486</v>
+        <v>11.69444345463468</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>9.815691686761532</v>
+        <v>11.45070846245402</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>10.72686362018717</v>
+        <v>11.33940384554484</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>16.20406996369857</v>
+        <v>16.57974444977525</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>15.81070906959714</v>
+        <v>16.22125158218919</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.62592272363044</v>
+        <v>14.91279414065687</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.98041496977707</v>
+        <v>14.0608790729929</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>17.7507064998815</v>
+        <v>17.64519179269074</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.26334772430849</v>
+        <v>17.24657376961697</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.41604621839513</v>
+        <v>14.80835160717423</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.10987466817879</v>
+        <v>23.00004699951776</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>23.88200850287144</v>
+        <v>23.58209554968462</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.09003620989937</v>
+        <v>20.1555895033456</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.11515680152243</v>
+        <v>32.28919318463743</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.52624864949099</v>
+        <v>36.49524269314806</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.43114512847385</v>
+        <v>38.01179763649398</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.36969671068439</v>
+        <v>32.67938419858254</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.5694770400157</v>
+        <v>21.02567508321211</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>20.73450151387055</v>
+        <v>21.12322697226941</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.57070131356455</v>
+        <v>18.22528092629274</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.79368421623895</v>
+        <v>29.63937652257767</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.11711576051992</v>
+        <v>30.63403830170897</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>33.81974959351825</v>
+        <v>30.9626684079268</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.41048384317166</v>
+        <v>24.80127755833447</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.24954585464031</v>
+        <v>13.2584349454743</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12.32754666613685</v>
+        <v>13.2711423020058</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>11.1073787545463</v>
+        <v>12.66006306507641</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>32.73277580239596</v>
+        <v>31.03011272232023</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.63007452061261</v>
+        <v>31.9130076315218</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>32.81615220008299</v>
+        <v>32.03335836102703</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.29745374972365</v>
+        <v>27.29418844548102</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>38.33303106234573</v>
+        <v>36.93418596370796</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.62417597014024</v>
+        <v>32.89951842493437</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.85244201508922</v>
+        <v>34.69749778864878</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.28840490040198</v>
+        <v>31.92568922297518</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.07947229649802</v>
+        <v>23.55193747955798</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>44.05383877090825</v>
+        <v>43.31546744191267</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>48.2794986065047</v>
+        <v>47.38081451054154</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>52.28999313332624</v>
+        <v>50.70126376263253</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.55167994008784</v>
+        <v>45.4566833293517</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>37.6355346373857</v>
+        <v>37.57386084915036</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.86903611921942</v>
+        <v>43.20220177485716</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>45.61169756170629</v>
+        <v>44.37309697346031</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>49.39862012768317</v>
+        <v>47.37850483843798</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.89032628059843</v>
+        <v>39.31242520958081</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.31568762187283</v>
+        <v>37.8779188197444</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.60367689649236</v>
+        <v>41.27615317695737</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>42.00864303269526</v>
+        <v>40.99258214653869</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>45.04325125684069</v>
+        <v>43.35828855839786</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.01601050878136</v>
+        <v>35.77280969955132</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.88643180502311</v>
+        <v>33.71218004933635</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>27.06973997001128</v>
+        <v>27.27611127984952</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.11463698942202</v>
+        <v>28.87575230957691</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.44356661587406</v>
+        <v>24.72153619256878</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>31.71078251670819</v>
+        <v>31.03641939023286</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>33.50315188569419</v>
+        <v>33.06942366143443</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>35.23610631355285</v>
+        <v>34.41697084397814</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.97185159593943</v>
+        <v>29.7969274480904</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.90736347942129</v>
+        <v>42.00188128354056</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>46.80755502714706</v>
+        <v>45.08792587954148</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>39.89318321705017</v>
+        <v>39.74418915303299</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>47.35371169354411</v>
+        <v>46.5324764309083</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>52.59994861863305</v>
+        <v>50.99869935601419</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>57.35957621633332</v>
+        <v>54.78060279462458</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>48.92752880114821</v>
+        <v>48.19540230030663</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>42.24868651364733</v>
+        <v>41.35848789254436</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>46.12513461451026</v>
+        <v>44.41510796695577</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.69862688485309</v>
+        <v>38.6729636634274</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>49.69837496899972</v>
+        <v>48.37846602017005</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>55.21042348897327</v>
+        <v>53.13662658103135</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>60.41500977473648</v>
+        <v>57.28515366880049</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>51.24307191007263</v>
+        <v>50.17873621647092</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>35.54345920534647</v>
+        <v>35.53130212246218</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>39.19099280375716</v>
+        <v>38.35479485705876</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>33.05835041471815</v>
+        <v>33.7476321794849</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>48.6636827188192</v>
+        <v>47.28082258511171</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>53.55333035340014</v>
+        <v>51.71842457214152</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>58.80306403307375</v>
+        <v>55.88862025339789</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.45907716271176</v>
+        <v>48.67613139922086</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.749321186236568</v>
+        <v>10.2998270613201</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>11.62792435363274</v>
+        <v>12.88647375065181</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>11.34865801302784</v>
+        <v>12.62093214997927</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.4146956913923</v>
+        <v>12.90585602720309</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>10.67548414082264</v>
+        <v>11.7829745415361</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.68043523730165</v>
+        <v>14.93870604703018</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.06851788305607</v>
+        <v>18.77688855115323</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.72624991058486</v>
+        <v>19.26565386912253</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.90362383752657</v>
+        <v>18.04588098356385</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.04790931775273</v>
+        <v>30.84490505033086</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.34075749597781</v>
+        <v>14.3890558417085</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.61112023254968</v>
+        <v>17.33714064312262</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.92120723655133</v>
+        <v>17.56440002891894</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>14.78632751034924</v>
+        <v>16.11244092043531</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.33101458490656</v>
+        <v>25.5670959470816</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.73900807838084</v>
+        <v>11.84574574870305</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.57987273677807</v>
+        <v>14.5343003762579</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.91497103890092</v>
+        <v>14.7686571885155</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.7735570418149</v>
+        <v>14.10517247415833</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>18.85177440345304</v>
+        <v>18.83019233333032</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.27100818314836</v>
+        <v>15.10474292695286</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.35752132257996</v>
+        <v>15.10588686193662</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>11.93469412319152</v>
+        <v>13.570771328724</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.22754903276856</v>
+        <v>12.60283528356175</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.64207087163486</v>
+        <v>16.62246277021053</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.91156220056844</v>
+        <v>16.83025693981355</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.16884558388665</v>
+        <v>15.76683347011825</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.33461345933569</v>
+        <v>34.26335242604475</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.14929210109595</v>
+        <v>36.62669054959336</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.9268553623473</v>
+        <v>31.56119191230526</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>40.88680085828908</v>
+        <v>40.59610059753943</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>49.75336477595917</v>
+        <v>48.03464420653047</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>53.15495566188153</v>
+        <v>50.78454555432564</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>46.79210812486838</v>
+        <v>45.86110676712849</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.80216284291702</v>
+        <v>27.39483384498059</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.58260089284656</v>
+        <v>27.9550991059128</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.0369701730307</v>
+        <v>25.58886971447645</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>39.42999137052946</v>
+        <v>38.18780598417609</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.14703980462048</v>
+        <v>42.63402406056599</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>45.81190400210438</v>
+        <v>43.96068685560263</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.73540284016125</v>
+        <v>39.37752284973658</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.21484545624259</v>
+        <v>18.24736349041791</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>17.48183372030523</v>
+        <v>18.4691274229103</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.51468976359435</v>
+        <v>17.85254716604353</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>37.14652656820765</v>
+        <v>35.69007095764319</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.07757747393647</v>
+        <v>38.04106140444688</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.67595191917466</v>
+        <v>39.30154665287481</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.45749753177655</v>
+        <v>34.64253101223005</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>4.605183494210934</v>
+        <v>6.103087225028546</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.437290641663342</v>
+        <v>7.973111834024611</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>5.953209880500786</v>
+        <v>7.559228553651717</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.058542813298935</v>
+        <v>8.66076906378461</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.5361772281347</v>
+        <v>24.11835714425855</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>5.651479461559045</v>
+        <v>7.361936087009308</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.912386306201249</v>
+        <v>10.22041713991072</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>8.756326550140926</v>
+        <v>10.05056954926443</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>8.452947042860178</v>
+        <v>10.07589849238557</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.35274371354986</v>
+        <v>36.31347896334328</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>9.660028210900066</v>
+        <v>10.8175520090673</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>13.3204856935341</v>
+        <v>14.16623978459307</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>12.84046020918732</v>
+        <v>13.75167379060666</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>10.7832050268961</v>
+        <v>12.44985649946447</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>37.17683791984479</v>
+        <v>37.00250162576715</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>10.94474701349024</v>
+        <v>11.73356061408629</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.54619075462786</v>
+        <v>13.56298052667796</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.22949585088471</v>
+        <v>13.28599398863306</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>11.61637539990337</v>
+        <v>13.06591438571222</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>34.70187993897469</v>
+        <v>34.29505039570841</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>27.09991796218689</v>
+        <v>27.33863172700632</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.49753259082915</v>
+        <v>28.42394076441968</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.34771395147863</v>
+        <v>25.34773709703059</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.64280194299257</v>
+        <v>26.49130421107445</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.32890361922265</v>
+        <v>29.20417685181159</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.3563077370733</v>
+        <v>30.00140678566672</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.69728746048841</v>
+        <v>25.78816807109853</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.16581412840817</v>
+        <v>40.42197723511154</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>44.90585113945883</v>
+        <v>43.34938993543809</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.15761981942085</v>
+        <v>38.13097882699586</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.12873872454642</v>
+        <v>46.27825609451295</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.36601408850434</v>
+        <v>51.59183047507781</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>58.5175440078452</v>
+        <v>55.69598055993697</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.35416737493563</v>
+        <v>48.53762910032152</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.95654326612254</v>
+        <v>41.16622191611415</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>45.70689178563705</v>
+        <v>44.08862304416295</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>38.40980083647004</v>
+        <v>38.46576154129824</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>48.48276751494483</v>
+        <v>47.56040505793822</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.18258602450224</v>
+        <v>53.21666631370789</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>60.48998748368136</v>
+        <v>57.40786544645594</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.79721220531316</v>
+        <v>49.80143497837224</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.63029979751366</v>
+        <v>36.31692059336405</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>40.2367414206546</v>
+        <v>39.11790039546591</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.91399639752841</v>
+        <v>34.31116128714941</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.81345662564294</v>
+        <v>47.63297612795236</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>55.25477016305142</v>
+        <v>53.30718390811105</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>60.74988758729529</v>
+        <v>57.67020344944349</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.54469952123198</v>
+        <v>49.75655885413506</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.37996231919871</v>
+        <v>14.05693665042758</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>15.98158629481538</v>
+        <v>17.00539903244438</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>15.93336506124481</v>
+        <v>16.93754807219106</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>15.19571471397683</v>
+        <v>16.54118806708124</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>8.48506452864919</v>
+        <v>9.561744480793976</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>17.05704253611535</v>
+        <v>18.30244738793135</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>21.86668979530523</v>
+        <v>22.33282175545689</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.79734102345957</v>
+        <v>23.08536597729918</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>20.596714079566</v>
+        <v>21.46125881721427</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.74098791340424</v>
+        <v>22.49061099097164</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>18.48605985344035</v>
+        <v>19.42514457759132</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>21.46045720072042</v>
+        <v>21.97623528705381</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.00377908988896</v>
+        <v>22.40894761917725</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.41431811161294</v>
+        <v>19.7609196491739</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.69002257759787</v>
+        <v>19.66828554759156</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.98155883603806</v>
+        <v>15.78861683008664</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.95517507438209</v>
+        <v>17.76327667068518</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.52089831936572</v>
+        <v>18.191579107021</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>15.15091345663775</v>
+        <v>16.57401024686678</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>14.61477951610836</v>
+        <v>15.018683376021</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>11.46372488301077</v>
+        <v>12.45852326692521</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.21473986647645</v>
+        <v>12.23273599189256</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>9.842602761370919</v>
+        <v>11.45308943942997</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.3373641450805</v>
+        <v>18.19009699337771</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>20.45492272188822</v>
+        <v>21.13644381427707</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.27836949504314</v>
+        <v>21.73489634580952</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.67645910085349</v>
+        <v>19.95069937718196</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.81870155051735</v>
+        <v>25.68100640866506</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.84581991669631</v>
+        <v>26.52696473647562</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.08904245338298</v>
+        <v>24.51080069515484</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>34.64306619116029</v>
+        <v>34.59565752441413</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>41.67014163837293</v>
+        <v>40.53605080607186</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>43.93393476798873</v>
+        <v>42.37356872894969</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.5162024872868</v>
+        <v>38.26391058869002</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.13173035913939</v>
+        <v>21.50445526961411</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.53559655789137</v>
+        <v>21.80597242686776</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>18.88224866525618</v>
+        <v>19.98926396677408</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.92499111550029</v>
+        <v>34.51715474447208</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.25284495029162</v>
+        <v>39.22672126500917</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>42.60566495691154</v>
+        <v>41.09048574503121</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.15337606004042</v>
+        <v>35.4241983983235</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.08728518678883</v>
+        <v>15.20513231252732</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>14.25204559351545</v>
+        <v>15.28699698805979</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>13.11696591456274</v>
+        <v>14.6513525877472</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.27165209601795</v>
+        <v>30.94711332232289</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.12445380166967</v>
+        <v>34.64599632426764</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.01341003203468</v>
+        <v>36.86836522662944</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.91330421076147</v>
+        <v>31.60480012066685</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>4.360374783059758</v>
+        <v>5.901460910971171</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>6.466409029219289</v>
+        <v>8.034644249308119</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.100676060769747</v>
+        <v>7.68896069166939</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.948103194280989</v>
+        <v>8.646401549322619</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>4.316271687298887</v>
+        <v>5.906619877129955</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.597103815870259</v>
+        <v>9.118481911107303</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.32950057189153</v>
+        <v>11.8039977637562</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.39129069315074</v>
+        <v>11.79976621547556</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.827529431173247</v>
+        <v>11.56257845927428</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>7.049786428259026</v>
+        <v>8.411774685776795</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>9.233642444730062</v>
+        <v>10.7351672868609</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.55528286643455</v>
+        <v>13.66537800677787</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>12.54994121527237</v>
+        <v>13.61806605019634</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>11.6488574781629</v>
+        <v>13.16195445459987</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>6.108422155273814</v>
+        <v>7.595259872639311</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>7.330814606728538</v>
+        <v>8.752979044017877</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>9.452139672850524</v>
+        <v>10.82880510223273</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>9.388475426978864</v>
+        <v>10.72944635020846</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>9.436349232791173</v>
+        <v>11.04231609020812</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>5.277108909090039</v>
+        <v>6.716688533035114</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>6.906683077467139</v>
+        <v>8.390913867613047</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>6.503873985232044</v>
+        <v>7.995201174191465</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>7.063294476035722</v>
+        <v>8.786550818527729</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>12.82291828312701</v>
+        <v>14.24594175162781</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>15.82187556314989</v>
+        <v>16.90278436040616</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>16.16665742197254</v>
+        <v>17.12350160858749</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>15.2909484806345</v>
+        <v>16.64767797656149</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.665944778656979</v>
+        <v>10.95866002662724</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.592744674190524</v>
+        <v>10.86353277367394</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>9.364822401834846</v>
+        <v>10.94020963550098</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.03071281090332</v>
+        <v>23.17817055566197</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.58303867842874</v>
+        <v>29.30808618724797</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.58115832376792</v>
+        <v>30.10907628520241</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.56921360663368</v>
+        <v>27.85334395096339</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>7.881749459431528</v>
+        <v>9.658394185470971</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.686518979792403</v>
+        <v>9.505291308028248</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.761522687204803</v>
+        <v>9.952437583751685</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.03839810961168</v>
+        <v>23.1151060889708</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.57760267238053</v>
+        <v>28.54817461577157</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.69918404275192</v>
+        <v>29.43580425738896</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.56259119604459</v>
+        <v>27.14690368437754</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.698658322453433</v>
+        <v>8.273051324529522</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>6.529036969931678</v>
+        <v>8.092928551806505</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>7.162226736712576</v>
+        <v>8.851045451912132</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.54266285898406</v>
+        <v>23.22750303860784</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.46868578098184</v>
+        <v>26.66808383165552</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>27.9558453547211</v>
+        <v>27.8206079659542</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.86723717820508</v>
+        <v>25.56878034258767</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>20.1508279039812</v>
+        <v>20.72744311070641</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.89477786268827</v>
+        <v>22.5527470420857</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.86633008034582</v>
+        <v>23.30077744666138</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.69171450064962</v>
+        <v>21.66449739828045</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>10.1389133792408</v>
+        <v>11.52143813566676</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>33.38955056860066</v>
+        <v>33.38542776700449</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>41.84015700487688</v>
+        <v>40.39247832452283</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>45.17000833964084</v>
+        <v>43.00678469632845</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.26599601887695</v>
+        <v>39.13010819156171</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.13267590450999</v>
+        <v>24.14830411240518</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.9051112276893</v>
+        <v>35.78143027266015</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.39663207264132</v>
+        <v>42.83381989603446</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>47.78910337559616</v>
+        <v>45.53915503307917</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.68481853075309</v>
+        <v>41.71317944307534</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.82373047995218</v>
+        <v>27.65706100785766</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.6971755800482</v>
+        <v>28.85589739561582</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.40843583937846</v>
+        <v>31.95943248940629</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.13450489366944</v>
+        <v>33.34260513035668</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.3389013674398</v>
+        <v>32.44542460594693</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.48221339770234</v>
+        <v>24.59015071499029</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>12.48456222044307</v>
+        <v>13.87881807084615</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.48832169252746</v>
+        <v>13.81454672682528</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>11.4577127905313</v>
+        <v>13.40328639934986</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>16.3999547102288</v>
+        <v>17.31457661830541</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.14306872141285</v>
+        <v>19.03775970137899</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.34235333476387</v>
+        <v>19.18450727047849</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>15.56958653564588</v>
+        <v>17.17637762220832</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.16342593366872</v>
+        <v>30.84099223021143</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.3974715098773</v>
+        <v>32.61360672920341</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>30.70333522579848</v>
+        <v>30.6020063276948</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>39.3232157935722</v>
+        <v>39.68607237852061</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>49.73324655346219</v>
+        <v>48.11944033441475</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>53.6236663100106</v>
+        <v>51.22400404850418</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>46.99158130467978</v>
+        <v>46.07564456913623</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.57736312311986</v>
+        <v>34.10658504153096</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.7932595044821</v>
+        <v>35.88176558652145</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.23941480230044</v>
+        <v>33.91850746013249</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.27213590496635</v>
+        <v>42.0343970428174</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.26508152089205</v>
+        <v>50.23504486067925</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>56.16789722764297</v>
+        <v>53.36773736108</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>49.1122532389433</v>
+        <v>47.88708470445447</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.54029433626548</v>
+        <v>26.97285730394197</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.48548639528955</v>
+        <v>28.47937348597834</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.88887948051124</v>
+        <v>27.36017550290451</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>41.02803361364465</v>
+        <v>40.10606658943418</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.28703460650151</v>
+        <v>43.29491306861913</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.38971459718395</v>
+        <v>45.75545688938175</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>39.39041726321799</v>
+        <v>39.69799374999616</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>34.18325548932024</v>
+        <v>33.90085557766521</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.19960031173675</v>
+        <v>34.28394054998385</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.44883049861772</v>
+        <v>36.04425998997793</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.51941684821688</v>
+        <v>30.71851958347309</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.29209013734818</v>
+        <v>21.08587719318955</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>41.84863384772817</v>
+        <v>41.30921364481495</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.3928968832401</v>
+        <v>46.16843741022431</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.34013877514882</v>
+        <v>49.37274728756896</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>44.35733208538417</v>
+        <v>43.99718442415067</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.28697233049721</v>
+        <v>37.76107817785346</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>39.13066748188579</v>
+        <v>38.37046971526757</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.87599176909373</v>
+        <v>40.93984415883852</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>45.16237908549788</v>
+        <v>43.53861577791065</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.6942140823933</v>
+        <v>36.28421891065375</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.44503062811</v>
+        <v>35.9872904670361</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.94429005814028</v>
+        <v>40.40177491071154</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.59523164091852</v>
+        <v>42.36048158519159</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.22416921815282</v>
+        <v>45.23758781534803</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>37.153732943888</v>
+        <v>37.48492174326553</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.41756084141453</v>
+        <v>33.58112011325723</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.03975357183502</v>
+        <v>24.47231805314975</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.50761675896475</v>
+        <v>25.58957791183668</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.55214410261686</v>
+        <v>21.96828093817514</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.31313730548028</v>
+        <v>26.8956477337542</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.91205409897109</v>
+        <v>29.63537187094192</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>30.986529388817</v>
+        <v>30.46084902841291</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.22733896967296</v>
+        <v>26.22553802370498</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>41.40242199832461</v>
+        <v>40.71014927303859</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.28104870547438</v>
+        <v>43.76033471099254</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.58736304606071</v>
+        <v>38.59024145428531</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>44.54821400372337</v>
+        <v>43.78308929091246</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.01382060979243</v>
+        <v>49.42151285317114</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>55.83849200993755</v>
+        <v>53.23464160469604</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.11378756408568</v>
+        <v>46.51835398344561</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.86987705108967</v>
+        <v>40.08740541163452</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.38005547948766</v>
+        <v>42.81716399769961</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>37.15630773595423</v>
+        <v>37.37248374712985</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>42.08421108756808</v>
+        <v>41.23321507609148</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.40885089558703</v>
+        <v>47.63302349191507</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>53.61744603297514</v>
+        <v>50.98222877096058</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>45.1372811374623</v>
+        <v>44.47054255664757</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.26720072941743</v>
+        <v>34.99544012603866</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>38.27589184661559</v>
+        <v>37.36614687209735</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>33.63034435818368</v>
+        <v>33.84913207195815</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.05754291198324</v>
+        <v>42.38618866164085</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>48.99104711887082</v>
+        <v>47.16857642842912</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.61701242403122</v>
+        <v>50.06085830873126</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>44.56327578141551</v>
+        <v>43.93831529604661</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.21631806179443</v>
+        <v>37.9297957580449</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.49117178638367</v>
+        <v>33.0403845159444</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.77650286039351</v>
+        <v>35.04724639437995</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.7838076595608</v>
+        <v>31.25498640575008</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.05657897259085</v>
+        <v>21.75296393186745</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>41.58811649996987</v>
+        <v>41.06946250861468</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.94285544895781</v>
+        <v>43.10083832211786</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>46.4132686721604</v>
+        <v>45.99804402229744</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.90319811812211</v>
+        <v>41.15381766916569</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.47463933984173</v>
+        <v>37.29298927474002</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>40.91675867028215</v>
+        <v>40.27746212692505</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.37172016180878</v>
+        <v>41.13481316794255</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>43.64821875134388</v>
+        <v>43.79515008337303</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.44990478763899</v>
+        <v>35.17712454010567</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.68683769966963</v>
+        <v>36.42550963094828</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>40.51809374874611</v>
+        <v>39.91372000608165</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>37.33835156314935</v>
+        <v>39.18637276859496</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>40.24095593365861</v>
+        <v>41.46168439900831</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.21905495534769</v>
+        <v>33.19069568977087</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.60693961341529</v>
+        <v>35.68649090047738</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.25299334142106</v>
+        <v>24.71313925274073</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.48620071493731</v>
+        <v>25.64595464694353</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>20.74154794479771</v>
+        <v>22.23638186029738</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.06917484154528</v>
+        <v>28.0068987031404</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.02143117649901</v>
+        <v>30.77521033383345</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.08949954571077</v>
+        <v>31.5995251993454</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.51591911559714</v>
+        <v>27.42557739793775</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.26140818462342</v>
+        <v>42.19948271158547</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.07793401797107</v>
+        <v>45.28209910295984</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.87212532185148</v>
+        <v>40.4240900419825</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.61279094566445</v>
+        <v>43.31767513834669</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>51.26736649978487</v>
+        <v>49.71500372901063</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.94346679228855</v>
+        <v>53.38770463341383</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>47.47485129477468</v>
+        <v>46.86142282178766</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.84269349746427</v>
+        <v>40.28006108852785</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.50528692158744</v>
+        <v>43.27581520215313</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>37.3432750940123</v>
+        <v>37.52011048270838</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>45.35306557149191</v>
+        <v>44.5945126985962</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>51.55793969967895</v>
+        <v>50.05328567858088</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.40577051741879</v>
+        <v>53.91278634237999</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.93314835864594</v>
+        <v>46.47153716078187</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.33485810188023</v>
+        <v>36.95905250617933</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.93374824623019</v>
+        <v>39.79870473083</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.04700669054439</v>
+        <v>35.27823112839666</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>45.33020323437812</v>
+        <v>44.16450815933575</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>50.93201861102025</v>
+        <v>49.1106806727033</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.64615925632552</v>
+        <v>52.8256726379292</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>46.0609978188502</v>
+        <v>45.44805489627665</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.68497073424727</v>
+        <v>37.78581795643531</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.61401146872604</v>
+        <v>29.73702210412883</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.00040915196794</v>
+        <v>30.97736483254039</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.07202190474698</v>
+        <v>26.0534267243082</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.18784445073784</v>
+        <v>36.22273311150806</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.62405314498913</v>
+        <v>44.73413750349079</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.23845575643001</v>
+        <v>42.89250588811224</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.45353280671988</v>
+        <v>45.65500019510394</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.89728839464208</v>
+        <v>39.09059829548946</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>51.07910837467861</v>
+        <v>48.89102344383912</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>45.9672212555538</v>
+        <v>44.64656398986089</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>42.74472990342045</v>
+        <v>42.68595833318525</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>46.17280886204748</v>
+        <v>45.39627065967047</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>35.16506006103124</v>
+        <v>36.61363897587734</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>50.98401078130767</v>
+        <v>48.61822608678168</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>47.39560690649452</v>
+        <v>45.3440127914003</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.82047598910937</v>
+        <v>40.76096427224736</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.22021403026685</v>
+        <v>43.42371277500989</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>32.19051810354929</v>
+        <v>34.48212778417148</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>51.46204633645358</v>
+        <v>48.47788095728038</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.93147485722341</v>
+        <v>30.10088005144706</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.6656818941512</v>
+        <v>30.65838639779818</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.49344710151406</v>
+        <v>27.55258659010323</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>44.22916354453354</v>
+        <v>42.13965708424091</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.52067767422141</v>
+        <v>36.30150476802515</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.17861042322837</v>
+        <v>36.84318978657758</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.24888989684458</v>
+        <v>32.8880150850731</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>46.29514706145071</v>
+        <v>45.53747369849554</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>49.07473758588094</v>
+        <v>47.80329632075262</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>44.20698224838338</v>
+        <v>43.88920669541439</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>57.66851037701036</v>
+        <v>55.07202608668697</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>56.5421231129796</v>
+        <v>54.52426996950396</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>60.19611622018455</v>
+        <v>57.4907742326029</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>53.78048805536527</v>
+        <v>52.35140300279163</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.84243566170947</v>
+        <v>44.72766254032364</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>48.70799381124119</v>
+        <v>46.98393104392749</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.14150394307558</v>
+        <v>42.57224566619411</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.04875890662765</v>
+        <v>57.13791657364524</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>57.81921210560512</v>
+        <v>55.84939848710212</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>61.48271364920124</v>
+        <v>58.85377713912042</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.05727639307524</v>
+        <v>52.87284148405234</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>42.95448695979054</v>
+        <v>42.40530291755042</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>46.17590144291594</v>
+        <v>44.936477997632</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>41.02629623896334</v>
+        <v>40.96927402216912</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>61.06515072489692</v>
+        <v>57.92083756767747</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>57.86272602975535</v>
+        <v>56.28676345273617</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>61.79135284113097</v>
+        <v>59.57891701846181</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>53.46326175191434</v>
+        <v>53.0744177368768</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.11221650430883</v>
+        <v>23.06389615661901</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.54528673498619</v>
+        <v>23.30042911673653</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.9741829310123</v>
+        <v>24.38604781270342</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.18396689977271</v>
+        <v>20.86531126586462</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.43769910975787</v>
+        <v>17.37601305883049</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>41.40869943789853</v>
+        <v>40.83114717100101</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>46.70866057195907</v>
+        <v>45.60168356097787</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>51.33193215313872</v>
+        <v>49.29838750050597</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.06191424745842</v>
+        <v>42.96566443121242</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>37.37421448809823</v>
+        <v>36.8096169139402</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.06877789367069</v>
+        <v>37.37528477727892</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.81168539158573</v>
+        <v>39.98549401508631</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>44.48510434889975</v>
+        <v>42.87058375253376</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.96027407271723</v>
+        <v>34.84521352267971</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>37.58085775928544</v>
+        <v>36.90207026248977</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.23596360355642</v>
+        <v>29.54830238922538</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.51330310115411</v>
+        <v>35.30558381077867</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.00891111412339</v>
+        <v>37.11106865511565</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.21563403095899</v>
+        <v>31.61793176400978</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.6659849528607</v>
+        <v>29.91770702613712</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.56961138871348</v>
+        <v>21.0940817319526</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>21.6598037062947</v>
+        <v>21.91287470082017</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>17.47312638277108</v>
+        <v>18.92270807520732</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.77837070987854</v>
+        <v>21.99415921347614</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.3771219139275</v>
+        <v>25.43454949275092</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.16256209418611</v>
+        <v>26.04383081570755</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>21.47165237933064</v>
+        <v>22.63293048244212</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.1384367171079</v>
+        <v>40.33295446551901</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.35302005405379</v>
+        <v>43.62641810711891</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.24823624852127</v>
+        <v>38.17195083124918</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.98771346887037</v>
+        <v>43.42662391317671</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.73485180607712</v>
+        <v>49.16900692508673</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>55.88423142969118</v>
+        <v>53.25632533501567</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>46.5331733195373</v>
+        <v>45.99675661074158</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.52435460717342</v>
+        <v>39.82953983923123</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.25114228847112</v>
+        <v>42.75923222296596</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>37.10569220589684</v>
+        <v>37.31289385535666</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>44.28744626963248</v>
+        <v>43.3382101501463</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.83780389167505</v>
+        <v>49.080624253707</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>55.39536523624982</v>
+        <v>52.68440387513913</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.5668413556199</v>
+        <v>45.91317058526946</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.83859231098365</v>
+        <v>30.05599155615686</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>33.12105731203743</v>
+        <v>31.61374434470741</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>27.7931340904552</v>
+        <v>27.45459240137392</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.42133955193263</v>
+        <v>39.22980122715428</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.41416970353326</v>
+        <v>44.73816998700055</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.6150395436586</v>
+        <v>47.27761079141529</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.55119846908966</v>
+        <v>41.95390933908432</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>13.15378828252381</v>
+        <v>14.48694511406126</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>15.65050849310005</v>
+        <v>16.78418015859743</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.68643606466848</v>
+        <v>16.78935755272476</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.81445576869109</v>
+        <v>16.31368662048858</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>12.55286344118477</v>
+        <v>13.66177511033047</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>18.82565642254025</v>
+        <v>19.9308343051832</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.65311288629675</v>
+        <v>23.94138887414498</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.73211354914223</v>
+        <v>24.77512314734999</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.65097819044984</v>
+        <v>22.53312385895151</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.03938094237301</v>
+        <v>35.54843475200819</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>17.4520273012643</v>
+        <v>18.5964841158252</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.47933210175097</v>
+        <v>22.0638415929978</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.08974045187673</v>
+        <v>22.55728299574173</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.11345449721483</v>
+        <v>20.40657817829794</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.816486414103</v>
+        <v>30.13701490444043</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>18.05141219640679</v>
+        <v>18.66333544084812</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.50237775268811</v>
+        <v>21.05767679000848</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.19988053627722</v>
+        <v>21.61228043144752</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>18.5997826327581</v>
+        <v>19.71724650433358</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>31.79029998855501</v>
+        <v>30.87133612310595</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.00178699280166</v>
+        <v>16.85702951259621</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>16.3169594952752</v>
+        <v>17.05763776614891</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>13.8949688181186</v>
+        <v>15.45875884222392</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>13.88749025289984</v>
+        <v>14.85147997737795</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>16.52849270027265</v>
+        <v>17.42575248792766</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.87804739422312</v>
+        <v>17.65605207187251</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>14.91089279237531</v>
+        <v>16.37917290714137</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.92311764883053</v>
+        <v>38.49197304325861</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.51654567521297</v>
+        <v>41.40996072931989</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.54108629743731</v>
+        <v>35.83711604889918</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.96990435489086</v>
+        <v>44.3830899811497</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>51.32255787634404</v>
+        <v>49.75750482878236</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>55.87125053166188</v>
+        <v>53.38439857124426</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>47.71858202783272</v>
+        <v>47.00211054139066</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.22919016018995</v>
+        <v>33.60395408684654</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.13113616128365</v>
+        <v>35.08802538526841</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.42512594751642</v>
+        <v>31.62221607247722</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.64722308495014</v>
+        <v>41.64441912425747</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>47.43708412904799</v>
+        <v>45.90351964330095</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.66677049283082</v>
+        <v>48.45037089447038</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.1319631923315</v>
+        <v>42.73576988066841</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>32.27282208492916</v>
+        <v>32.04676827773979</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.78967165552206</v>
+        <v>33.28911428653041</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.80567585972426</v>
+        <v>30.236080226992</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.32303697135242</v>
+        <v>39.49808520992232</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>41.83170100068351</v>
+        <v>40.67457703843314</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.54102057930131</v>
+        <v>42.02726160073244</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.80965334339608</v>
+        <v>36.19072808780581</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>10.8252083147674</v>
+        <v>11.67508754853591</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>13.74898090030993</v>
+        <v>14.56653743765598</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.60746627069066</v>
+        <v>14.3876890505649</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.22778391008502</v>
+        <v>14.27147627680661</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>14.74575527894316</v>
+        <v>15.05577909397918</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.89605820872831</v>
+        <v>18.94529510260552</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>27.79509854610794</v>
+        <v>25.67758233919223</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.2185478585236</v>
+        <v>26.27535409243154</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.22130013805454</v>
+        <v>24.64563434063443</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.52684015416315</v>
+        <v>28.99615255781278</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.57664569583874</v>
+        <v>36.2954364819192</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.25016521020217</v>
+        <v>39.39484767359095</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>40.96820000726797</v>
+        <v>41.85001957556725</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.66155827793672</v>
+        <v>36.78439331340449</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.65043014732655</v>
+        <v>33.9856619367648</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.80788776163021</v>
+        <v>30.87017329624119</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.75975982117861</v>
+        <v>33.49122344132885</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.22093013464366</v>
+        <v>35.66066966827471</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>30.62834172882389</v>
+        <v>32.37667833676161</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.37601873351264</v>
+        <v>31.73646847008744</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>17.1902713342569</v>
+        <v>17.7800148430468</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.08144547134986</v>
+        <v>17.64504709967668</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>13.58026598638286</v>
+        <v>15.36389389645539</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>14.23241054362456</v>
+        <v>12.69870641562161</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>15.91031642786607</v>
+        <v>14.73823017493308</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>15.56231247806425</v>
+        <v>14.47377376173338</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>12.43334932074035</v>
+        <v>12.43920469345134</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>34.82414875229637</v>
+        <v>33.50360968382235</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.73293736422384</v>
+        <v>34.68907957455689</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.31319484953149</v>
+        <v>32.16487264621838</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>37.7827028545785</v>
+        <v>35.99713878517676</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.05906479458426</v>
+        <v>43.09862829336171</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>47.66164101045653</v>
+        <v>44.95468457416011</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.83664992599403</v>
+        <v>41.12076643676222</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.15205473106503</v>
+        <v>37.41882063604758</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>40.68855497247473</v>
+        <v>39.42642809234952</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>34.52562251633262</v>
+        <v>34.75001180626803</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>42.60942415245203</v>
+        <v>42.14323207048342</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.87052390326721</v>
+        <v>45.79305376633497</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>49.75039663441595</v>
+        <v>48.24893597981112</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.73662508775686</v>
+        <v>41.70048587906741</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.55024920883005</v>
+        <v>34.24251310405103</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.95787494271865</v>
+        <v>36.09588413321233</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.1599532427898</v>
+        <v>32.5649398413793</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>38.19578267903446</v>
+        <v>37.31342466684289</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.26793329721868</v>
+        <v>39.46007177208599</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.60059771903344</v>
+        <v>41.03925176469771</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.75299147290449</v>
+        <v>35.15904062318241</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.11951056076489</v>
+        <v>37.69133272812507</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.02904086541491</v>
+        <v>33.65320529638205</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.20051509694461</v>
+        <v>35.46113080490504</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.62498699834703</v>
+        <v>32.22987456820574</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.99681867531815</v>
+        <v>24.68133253104241</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>42.07172250135719</v>
+        <v>41.71060129292459</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>44.23288922895883</v>
+        <v>44.43790864341408</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>47.4871083531928</v>
+        <v>47.28062843301115</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>40.67726025066531</v>
+        <v>42.20312428374518</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>37.08818366410161</v>
+        <v>37.18734344866387</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>41.79545637474027</v>
+        <v>40.60941241367839</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>41.99961239756875</v>
+        <v>40.65033023366672</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>44.59067994631289</v>
+        <v>42.5894757314831</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.94118643730255</v>
+        <v>34.27807809901535</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>37.87615709388889</v>
+        <v>37.67686663125784</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>43.07990703789722</v>
+        <v>41.16524939075601</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>41.19984950539531</v>
+        <v>40.31161378865016</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.84564348855299</v>
+        <v>42.4215967762535</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.58939674881579</v>
+        <v>33.83491406911329</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>37.55353402048167</v>
+        <v>36.98544976124983</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.05278744734112</v>
+        <v>29.06135375681115</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.7414358009079</v>
+        <v>30.38413755078464</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.66993796488644</v>
+        <v>27.34929119515897</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>27.74625257328536</v>
+        <v>27.81045681727522</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>32.02304219602657</v>
+        <v>31.66774453957587</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.15694535986159</v>
+        <v>32.55124409818769</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>27.74646772231073</v>
+        <v>28.51170289952299</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>42.42860147403979</v>
+        <v>41.73558087588316</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>46.15730940343222</v>
+        <v>44.71508459147127</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>39.78344074271132</v>
+        <v>39.70461376419055</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>44.95842720430936</v>
+        <v>44.51864469244531</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>51.32749491704655</v>
+        <v>49.73130263802942</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>56.02025964920397</v>
+        <v>53.48768819051677</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>47.92273269117062</v>
+        <v>47.0953892632772</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>42.31053535258008</v>
+        <v>41.4847948361421</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>45.7408132573733</v>
+        <v>44.21554185626713</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>38.67655485117354</v>
+        <v>38.71270171384607</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>46.2950244508115</v>
+        <v>45.48560660882021</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>52.57674108422249</v>
+        <v>50.83226359875304</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>57.14595300132872</v>
+        <v>54.47182859675301</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>48.16971726482844</v>
+        <v>47.4152215286482</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.92924434109712</v>
+        <v>39.32528517331826</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>43.73033828714827</v>
+        <v>42.32669673095203</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>36.84763030310502</v>
+        <v>36.98996813923986</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>45.07916833246213</v>
+        <v>44.01300880534613</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>48.80017675490819</v>
+        <v>47.40273740181594</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>53.10210276910892</v>
+        <v>50.81630040019624</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>43.095749012761</v>
+        <v>43.07848728044435</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>18.7036458593388</v>
+        <v>19.07973721158833</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>19.81367162600751</v>
+        <v>20.56361311927144</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.76057552510534</v>
+        <v>21.26935776673812</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>16.9975155324959</v>
+        <v>18.58337544017892</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>19.88193632511733</v>
+        <v>21.07846362551269</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>41.06168362101068</v>
+        <v>40.58613159752368</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.35966579738896</v>
+        <v>44.44551499158475</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>49.94100648537298</v>
+        <v>48.07637906087184</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>41.99526338380413</v>
+        <v>42.00810270781187</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.42530628597892</v>
+        <v>36.09777068884585</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>38.771678495824</v>
+        <v>37.89434542311206</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>40.52336009520637</v>
+        <v>39.65299443024486</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>44.41632888904957</v>
+        <v>42.6607303145254</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>34.25709149576632</v>
+        <v>34.88208201002384</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>37.78769931771196</v>
+        <v>37.29132482876076</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.62575992892971</v>
+        <v>32.90970529629978</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>35.94370682418676</v>
+        <v>35.34053284723755</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>38.84646219193815</v>
+        <v>37.61148191189855</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>30.30446326744542</v>
+        <v>31.20756146889427</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>32.29884136655978</v>
+        <v>31.78575125563765</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>24.46891039897127</v>
+        <v>24.84887706616509</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>25.67013444900295</v>
+        <v>25.77882287561514</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>22.17702831573846</v>
+        <v>23.1503799363641</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>20.70243345216219</v>
+        <v>20.87609407014777</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>24.41539182221504</v>
+        <v>24.44509015719466</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>25.08289384616336</v>
+        <v>24.96615847297476</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>20.59576088618387</v>
+        <v>21.70714978637905</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>41.02562860444948</v>
+        <v>40.25234662435548</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>45.26738677336999</v>
+        <v>43.60478393383575</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.14774391997788</v>
+        <v>38.13174013884405</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>45.71064603098021</v>
+        <v>44.63657617983321</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>50.31829528589951</v>
+        <v>48.79763606292288</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>55.32561857010248</v>
+        <v>52.78264268673789</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>46.01236240075635</v>
+        <v>45.54722952396973</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>41.34425226642208</v>
+        <v>40.66176136376485</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>45.29107605025352</v>
+        <v>43.76323778934633</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>37.31533984186643</v>
+        <v>37.64051678200794</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>44.84490981051926</v>
+        <v>43.66609749123604</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>49.27605727978997</v>
+        <v>47.78394881767599</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>53.47659007402611</v>
+        <v>51.03885257646701</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>44.43635780649237</v>
+        <v>44.13982903708394</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.10821503459091</v>
+        <v>34.70067881665411</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>38.06112810558958</v>
+        <v>37.0084498701023</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.68595843520401</v>
+        <v>32.98924823463354</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>38.39677603386036</v>
+        <v>37.01108649824172</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>41.98403886509755</v>
+        <v>40.67210700397368</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>44.41037904941048</v>
+        <v>42.59228521141095</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.92528859153683</v>
+        <v>36.9716972482581</v>
       </c>
     </row>
   </sheetData>
